--- a/contratos/contratos-7-2020.xlsx
+++ b/contratos/contratos-7-2020.xlsx
@@ -895,7 +895,7 @@
     <t>LOPEZ RICARDO FABIAN</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -928,7 +928,7 @@
     <t>ADER S.A.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>BLANC ELSA MABEL</t>
@@ -1201,7 +1201,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROJAS PEDRO MARTIN</t>
@@ -1249,7 +1249,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1375,7 +1375,7 @@
     <t>URANGA GUILLERMO JESUS</t>
   </si>
   <si>
-    <t>ALVAREZ, RENZO JOEL</t>
+    <t>ALVAREZ. RENZO JOEL</t>
   </si>
   <si>
     <t>CONTROL TRIP SOCIEDAD POR ACCIONES SIMPLIFICADA</t>
@@ -1819,757 +1819,757 @@
     <t>205</t>
   </si>
   <si>
-    <t>1.056.600,00</t>
-  </si>
-  <si>
-    <t>274.800,00</t>
-  </si>
-  <si>
-    <t>898.000,00</t>
-  </si>
-  <si>
-    <t>16.390,00</t>
-  </si>
-  <si>
-    <t>27.800,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>28.800,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>68.320,00</t>
-  </si>
-  <si>
-    <t>276.000,00</t>
-  </si>
-  <si>
-    <t>978.000,00</t>
-  </si>
-  <si>
-    <t>935.935,00</t>
-  </si>
-  <si>
-    <t>1.217,10</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>901.268,34</t>
-  </si>
-  <si>
-    <t>70.340,00</t>
-  </si>
-  <si>
-    <t>59.000,00</t>
-  </si>
-  <si>
-    <t>1.563.311,30</t>
-  </si>
-  <si>
-    <t>8.756,00</t>
-  </si>
-  <si>
-    <t>34.560,00</t>
-  </si>
-  <si>
-    <t>171.300,00</t>
-  </si>
-  <si>
-    <t>5.678,70</t>
-  </si>
-  <si>
-    <t>57.993,18</t>
-  </si>
-  <si>
-    <t>19.310,00</t>
-  </si>
-  <si>
-    <t>472.168,00</t>
-  </si>
-  <si>
-    <t>248.601,01</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>19.500,00</t>
-  </si>
-  <si>
-    <t>2.240,00</t>
-  </si>
-  <si>
-    <t>199,98</t>
-  </si>
-  <si>
-    <t>97.650,00</t>
-  </si>
-  <si>
-    <t>5.511.884,54</t>
-  </si>
-  <si>
-    <t>216.038,80</t>
-  </si>
-  <si>
-    <t>138.225,00</t>
-  </si>
-  <si>
-    <t>15.972,00</t>
-  </si>
-  <si>
-    <t>20.603,29</t>
-  </si>
-  <si>
-    <t>2.040,00</t>
-  </si>
-  <si>
-    <t>238,80</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>600.858,00</t>
-  </si>
-  <si>
-    <t>1.360,95</t>
-  </si>
-  <si>
-    <t>2.601,03</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>165.917,00</t>
-  </si>
-  <si>
-    <t>3.663,49</t>
-  </si>
-  <si>
-    <t>11.250,00</t>
-  </si>
-  <si>
-    <t>3.798,00</t>
-  </si>
-  <si>
-    <t>11.200,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>79.935,65</t>
-  </si>
-  <si>
-    <t>403.430,42</t>
-  </si>
-  <si>
-    <t>1.830,00</t>
-  </si>
-  <si>
-    <t>970,00</t>
-  </si>
-  <si>
-    <t>72.770,82</t>
-  </si>
-  <si>
-    <t>10.550,00</t>
-  </si>
-  <si>
-    <t>880,00</t>
-  </si>
-  <si>
-    <t>37.871,00</t>
-  </si>
-  <si>
-    <t>13.836,07</t>
-  </si>
-  <si>
-    <t>38.483,36</t>
-  </si>
-  <si>
-    <t>28.560,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>15.153,12</t>
-  </si>
-  <si>
-    <t>8.465,42</t>
-  </si>
-  <si>
-    <t>1.125,00</t>
-  </si>
-  <si>
-    <t>12,66</t>
-  </si>
-  <si>
-    <t>1.990,00</t>
-  </si>
-  <si>
-    <t>21.813,42</t>
-  </si>
-  <si>
-    <t>13.387,80</t>
-  </si>
-  <si>
-    <t>205,00</t>
-  </si>
-  <si>
-    <t>303.257,00</t>
-  </si>
-  <si>
-    <t>35.999,60</t>
-  </si>
-  <si>
-    <t>21.040,00</t>
-  </si>
-  <si>
-    <t>4.993,20</t>
-  </si>
-  <si>
-    <t>28.650,00</t>
-  </si>
-  <si>
-    <t>30.581,95</t>
-  </si>
-  <si>
-    <t>8.610,00</t>
-  </si>
-  <si>
-    <t>59.062,50</t>
-  </si>
-  <si>
-    <t>19.687,50</t>
-  </si>
-  <si>
-    <t>50.400,00</t>
-  </si>
-  <si>
-    <t>3.526,25</t>
-  </si>
-  <si>
-    <t>379.500,00</t>
-  </si>
-  <si>
-    <t>43.551,00</t>
-  </si>
-  <si>
-    <t>515,60</t>
-  </si>
-  <si>
-    <t>67.090,00</t>
-  </si>
-  <si>
-    <t>107.807,40</t>
-  </si>
-  <si>
-    <t>777.439,00</t>
-  </si>
-  <si>
-    <t>786,50</t>
-  </si>
-  <si>
-    <t>69.500,00</t>
-  </si>
-  <si>
-    <t>2.920,00</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>190.390,00</t>
-  </si>
-  <si>
-    <t>72.800,00</t>
-  </si>
-  <si>
-    <t>50.100,00</t>
-  </si>
-  <si>
-    <t>8.025,00</t>
-  </si>
-  <si>
-    <t>89.899,00</t>
-  </si>
-  <si>
-    <t>17.784,92</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>8.799,00</t>
-  </si>
-  <si>
-    <t>34.090,00</t>
-  </si>
-  <si>
-    <t>40.293,00</t>
-  </si>
-  <si>
-    <t>14.021,00</t>
-  </si>
-  <si>
-    <t>10.570,00</t>
-  </si>
-  <si>
-    <t>29.018,53</t>
-  </si>
-  <si>
-    <t>15.460,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>30.455,00</t>
-  </si>
-  <si>
-    <t>8.850,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>19.798,00</t>
-  </si>
-  <si>
-    <t>28.674,86</t>
-  </si>
-  <si>
-    <t>187.498,20</t>
-  </si>
-  <si>
-    <t>320.956,59</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>3.290,00</t>
-  </si>
-  <si>
-    <t>5.740,00</t>
-  </si>
-  <si>
-    <t>5.040,00</t>
-  </si>
-  <si>
-    <t>23.400,00</t>
-  </si>
-  <si>
-    <t>21.069,00</t>
-  </si>
-  <si>
-    <t>140.120,00</t>
-  </si>
-  <si>
-    <t>9.322,00</t>
-  </si>
-  <si>
-    <t>2.080,00</t>
-  </si>
-  <si>
-    <t>13.920,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>8.100,00</t>
-  </si>
-  <si>
-    <t>61.664,60</t>
-  </si>
-  <si>
-    <t>4.050,00</t>
-  </si>
-  <si>
-    <t>10.744,50</t>
-  </si>
-  <si>
-    <t>23.045,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>264,75</t>
-  </si>
-  <si>
-    <t>470,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>59.050,00</t>
-  </si>
-  <si>
-    <t>7.960,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>18.400,00</t>
-  </si>
-  <si>
-    <t>7.219,00</t>
-  </si>
-  <si>
-    <t>419.560,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>15.504,41</t>
-  </si>
-  <si>
-    <t>7.660,11</t>
-  </si>
-  <si>
-    <t>50.547,50</t>
-  </si>
-  <si>
-    <t>2.726,60</t>
-  </si>
-  <si>
-    <t>399.614,85</t>
-  </si>
-  <si>
-    <t>102,00</t>
-  </si>
-  <si>
-    <t>325,80</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>2.536,00</t>
-  </si>
-  <si>
-    <t>8.315,00</t>
-  </si>
-  <si>
-    <t>39.000,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>40.885,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>26.000,00</t>
-  </si>
-  <si>
-    <t>23.205,00</t>
-  </si>
-  <si>
-    <t>20.870,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>47.485,38</t>
-  </si>
-  <si>
-    <t>49.770,00</t>
-  </si>
-  <si>
-    <t>1.641,33</t>
-  </si>
-  <si>
-    <t>3.770,00</t>
-  </si>
-  <si>
-    <t>86.390,00</t>
-  </si>
-  <si>
-    <t>18.944,20</t>
-  </si>
-  <si>
-    <t>306,06</t>
-  </si>
-  <si>
-    <t>141.560,00</t>
-  </si>
-  <si>
-    <t>498,00</t>
-  </si>
-  <si>
-    <t>130,10</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>39.300,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>43.803,30</t>
-  </si>
-  <si>
-    <t>5.349,00</t>
-  </si>
-  <si>
-    <t>26.145,00</t>
-  </si>
-  <si>
-    <t>10.432,12</t>
-  </si>
-  <si>
-    <t>42.700,00</t>
-  </si>
-  <si>
-    <t>18.900,00</t>
-  </si>
-  <si>
-    <t>4.770,00</t>
-  </si>
-  <si>
-    <t>499,10</t>
-  </si>
-  <si>
-    <t>5.039,80</t>
-  </si>
-  <si>
-    <t>17.860,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>2.043,30</t>
-  </si>
-  <si>
-    <t>28.200,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>45.950,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>153.868,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>38.400,00</t>
-  </si>
-  <si>
-    <t>16.096,50</t>
-  </si>
-  <si>
-    <t>13.800,00</t>
-  </si>
-  <si>
-    <t>17.880,00</t>
-  </si>
-  <si>
-    <t>40.224,37</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>171.100,00</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>18.394.731,25</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>9.550,00</t>
-  </si>
-  <si>
-    <t>9.100,00</t>
-  </si>
-  <si>
-    <t>59.700,00</t>
-  </si>
-  <si>
-    <t>215.200,00</t>
-  </si>
-  <si>
-    <t>298.100,00</t>
-  </si>
-  <si>
-    <t>319.480,00</t>
-  </si>
-  <si>
-    <t>566.600,00</t>
-  </si>
-  <si>
-    <t>767.230,00</t>
-  </si>
-  <si>
-    <t>1.017.000,00</t>
-  </si>
-  <si>
-    <t>469.260,00</t>
-  </si>
-  <si>
-    <t>596.200,00</t>
-  </si>
-  <si>
-    <t>588.540,00</t>
-  </si>
-  <si>
-    <t>587.600,00</t>
-  </si>
-  <si>
-    <t>877.100,00</t>
-  </si>
-  <si>
-    <t>860.040,00</t>
-  </si>
-  <si>
-    <t>323.763,00</t>
-  </si>
-  <si>
-    <t>70.665,47</t>
-  </si>
-  <si>
-    <t>83.948,77</t>
-  </si>
-  <si>
-    <t>275.000,00</t>
-  </si>
-  <si>
-    <t>43.000,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>19.456,80</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>1.053.533,33</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>10.200,00</t>
-  </si>
-  <si>
-    <t>23.050,00</t>
-  </si>
-  <si>
-    <t>464.855,88</t>
-  </si>
-  <si>
-    <t>58.400,00</t>
-  </si>
-  <si>
-    <t>2.100.000,00</t>
-  </si>
-  <si>
-    <t>183.000,00</t>
-  </si>
-  <si>
-    <t>525.000,00</t>
-  </si>
-  <si>
-    <t>1.070.000,00</t>
-  </si>
-  <si>
-    <t>3.938.890,00</t>
+    <t>1056600.00</t>
+  </si>
+  <si>
+    <t>274800.00</t>
+  </si>
+  <si>
+    <t>898000.00</t>
+  </si>
+  <si>
+    <t>16390.00</t>
+  </si>
+  <si>
+    <t>27800.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>28800.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>68320.00</t>
+  </si>
+  <si>
+    <t>276000.00</t>
+  </si>
+  <si>
+    <t>978000.00</t>
+  </si>
+  <si>
+    <t>935935.00</t>
+  </si>
+  <si>
+    <t>1217.10</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>901268.34</t>
+  </si>
+  <si>
+    <t>70340.00</t>
+  </si>
+  <si>
+    <t>59000.00</t>
+  </si>
+  <si>
+    <t>1563311.30</t>
+  </si>
+  <si>
+    <t>8756.00</t>
+  </si>
+  <si>
+    <t>34560.00</t>
+  </si>
+  <si>
+    <t>171300.00</t>
+  </si>
+  <si>
+    <t>5678.70</t>
+  </si>
+  <si>
+    <t>57993.18</t>
+  </si>
+  <si>
+    <t>19310.00</t>
+  </si>
+  <si>
+    <t>472168.00</t>
+  </si>
+  <si>
+    <t>248601.01</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>2240.00</t>
+  </si>
+  <si>
+    <t>199.98</t>
+  </si>
+  <si>
+    <t>97650.00</t>
+  </si>
+  <si>
+    <t>5511884.54</t>
+  </si>
+  <si>
+    <t>216038.80</t>
+  </si>
+  <si>
+    <t>138225.00</t>
+  </si>
+  <si>
+    <t>15972.00</t>
+  </si>
+  <si>
+    <t>20603.29</t>
+  </si>
+  <si>
+    <t>2040.00</t>
+  </si>
+  <si>
+    <t>238.80</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>600858.00</t>
+  </si>
+  <si>
+    <t>1360.95</t>
+  </si>
+  <si>
+    <t>2601.03</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>165917.00</t>
+  </si>
+  <si>
+    <t>3663.49</t>
+  </si>
+  <si>
+    <t>11250.00</t>
+  </si>
+  <si>
+    <t>3798.00</t>
+  </si>
+  <si>
+    <t>11200.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>79935.65</t>
+  </si>
+  <si>
+    <t>403430.42</t>
+  </si>
+  <si>
+    <t>1830.00</t>
+  </si>
+  <si>
+    <t>970.00</t>
+  </si>
+  <si>
+    <t>72770.82</t>
+  </si>
+  <si>
+    <t>10550.00</t>
+  </si>
+  <si>
+    <t>880.00</t>
+  </si>
+  <si>
+    <t>37871.00</t>
+  </si>
+  <si>
+    <t>13836.07</t>
+  </si>
+  <si>
+    <t>38483.36</t>
+  </si>
+  <si>
+    <t>28560.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>15153.12</t>
+  </si>
+  <si>
+    <t>8465.42</t>
+  </si>
+  <si>
+    <t>1125.00</t>
+  </si>
+  <si>
+    <t>12.66</t>
+  </si>
+  <si>
+    <t>1990.00</t>
+  </si>
+  <si>
+    <t>21813.42</t>
+  </si>
+  <si>
+    <t>13387.80</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>303257.00</t>
+  </si>
+  <si>
+    <t>35999.60</t>
+  </si>
+  <si>
+    <t>21040.00</t>
+  </si>
+  <si>
+    <t>4993.20</t>
+  </si>
+  <si>
+    <t>28650.00</t>
+  </si>
+  <si>
+    <t>30581.95</t>
+  </si>
+  <si>
+    <t>8610.00</t>
+  </si>
+  <si>
+    <t>59062.50</t>
+  </si>
+  <si>
+    <t>19687.50</t>
+  </si>
+  <si>
+    <t>50400.00</t>
+  </si>
+  <si>
+    <t>3526.25</t>
+  </si>
+  <si>
+    <t>379500.00</t>
+  </si>
+  <si>
+    <t>43551.00</t>
+  </si>
+  <si>
+    <t>515.60</t>
+  </si>
+  <si>
+    <t>67090.00</t>
+  </si>
+  <si>
+    <t>107807.40</t>
+  </si>
+  <si>
+    <t>777439.00</t>
+  </si>
+  <si>
+    <t>786.50</t>
+  </si>
+  <si>
+    <t>69500.00</t>
+  </si>
+  <si>
+    <t>2920.00</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>190390.00</t>
+  </si>
+  <si>
+    <t>72800.00</t>
+  </si>
+  <si>
+    <t>50100.00</t>
+  </si>
+  <si>
+    <t>8025.00</t>
+  </si>
+  <si>
+    <t>89899.00</t>
+  </si>
+  <si>
+    <t>17784.92</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>8799.00</t>
+  </si>
+  <si>
+    <t>34090.00</t>
+  </si>
+  <si>
+    <t>40293.00</t>
+  </si>
+  <si>
+    <t>14021.00</t>
+  </si>
+  <si>
+    <t>10570.00</t>
+  </si>
+  <si>
+    <t>29018.53</t>
+  </si>
+  <si>
+    <t>15460.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>30455.00</t>
+  </si>
+  <si>
+    <t>8850.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>19798.00</t>
+  </si>
+  <si>
+    <t>28674.86</t>
+  </si>
+  <si>
+    <t>187498.20</t>
+  </si>
+  <si>
+    <t>320956.59</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>3290.00</t>
+  </si>
+  <si>
+    <t>5740.00</t>
+  </si>
+  <si>
+    <t>5040.00</t>
+  </si>
+  <si>
+    <t>23400.00</t>
+  </si>
+  <si>
+    <t>21069.00</t>
+  </si>
+  <si>
+    <t>140120.00</t>
+  </si>
+  <si>
+    <t>9322.00</t>
+  </si>
+  <si>
+    <t>2080.00</t>
+  </si>
+  <si>
+    <t>13920.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>8100.00</t>
+  </si>
+  <si>
+    <t>61664.60</t>
+  </si>
+  <si>
+    <t>4050.00</t>
+  </si>
+  <si>
+    <t>10744.50</t>
+  </si>
+  <si>
+    <t>23045.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>264.75</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>59050.00</t>
+  </si>
+  <si>
+    <t>7960.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>18400.00</t>
+  </si>
+  <si>
+    <t>7219.00</t>
+  </si>
+  <si>
+    <t>419560.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>15504.41</t>
+  </si>
+  <si>
+    <t>7660.11</t>
+  </si>
+  <si>
+    <t>50547.50</t>
+  </si>
+  <si>
+    <t>2726.60</t>
+  </si>
+  <si>
+    <t>399614.85</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>325.80</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>2536.00</t>
+  </si>
+  <si>
+    <t>8315.00</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>40885.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>23205.00</t>
+  </si>
+  <si>
+    <t>20870.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>47485.38</t>
+  </si>
+  <si>
+    <t>49770.00</t>
+  </si>
+  <si>
+    <t>1641.33</t>
+  </si>
+  <si>
+    <t>3770.00</t>
+  </si>
+  <si>
+    <t>86390.00</t>
+  </si>
+  <si>
+    <t>18944.20</t>
+  </si>
+  <si>
+    <t>306.06</t>
+  </si>
+  <si>
+    <t>141560.00</t>
+  </si>
+  <si>
+    <t>498.00</t>
+  </si>
+  <si>
+    <t>130.10</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>39300.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>43803.30</t>
+  </si>
+  <si>
+    <t>5349.00</t>
+  </si>
+  <si>
+    <t>26145.00</t>
+  </si>
+  <si>
+    <t>10432.12</t>
+  </si>
+  <si>
+    <t>42700.00</t>
+  </si>
+  <si>
+    <t>18900.00</t>
+  </si>
+  <si>
+    <t>4770.00</t>
+  </si>
+  <si>
+    <t>499.10</t>
+  </si>
+  <si>
+    <t>5039.80</t>
+  </si>
+  <si>
+    <t>17860.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>2043.30</t>
+  </si>
+  <si>
+    <t>28200.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>45950.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>153868.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>38400.00</t>
+  </si>
+  <si>
+    <t>16096.50</t>
+  </si>
+  <si>
+    <t>13800.00</t>
+  </si>
+  <si>
+    <t>17880.00</t>
+  </si>
+  <si>
+    <t>40224.37</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>171100.00</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>18394731.25</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>9550.00</t>
+  </si>
+  <si>
+    <t>9100.00</t>
+  </si>
+  <si>
+    <t>59700.00</t>
+  </si>
+  <si>
+    <t>215200.00</t>
+  </si>
+  <si>
+    <t>298100.00</t>
+  </si>
+  <si>
+    <t>319480.00</t>
+  </si>
+  <si>
+    <t>566600.00</t>
+  </si>
+  <si>
+    <t>767230.00</t>
+  </si>
+  <si>
+    <t>1017000.00</t>
+  </si>
+  <si>
+    <t>469260.00</t>
+  </si>
+  <si>
+    <t>596200.00</t>
+  </si>
+  <si>
+    <t>588540.00</t>
+  </si>
+  <si>
+    <t>587600.00</t>
+  </si>
+  <si>
+    <t>877100.00</t>
+  </si>
+  <si>
+    <t>860040.00</t>
+  </si>
+  <si>
+    <t>323763.00</t>
+  </si>
+  <si>
+    <t>70665.47</t>
+  </si>
+  <si>
+    <t>83948.77</t>
+  </si>
+  <si>
+    <t>275000.00</t>
+  </si>
+  <si>
+    <t>43000.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>19456.80</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>1053533.33</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>10200.00</t>
+  </si>
+  <si>
+    <t>23050.00</t>
+  </si>
+  <si>
+    <t>464855.88</t>
+  </si>
+  <si>
+    <t>58400.00</t>
+  </si>
+  <si>
+    <t>2100000.00</t>
+  </si>
+  <si>
+    <t>183000.00</t>
+  </si>
+  <si>
+    <t>525000.00</t>
+  </si>
+  <si>
+    <t>1070000.00</t>
+  </si>
+  <si>
+    <t>3938890.00</t>
   </si>
 </sst>
 </file>
